--- a/src/main/webapp/ly/Students_model.xlsx
+++ b/src/main/webapp/ly/Students_model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>女</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20151534119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>性别</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -72,10 +68,6 @@
   </si>
   <si>
     <t>年级（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码（必填）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -580,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,44 +588,41 @@
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
-    <col min="18" max="18" width="3.5" customWidth="1"/>
-    <col min="19" max="19" width="3.875" customWidth="1"/>
-    <col min="20" max="20" width="4.375" customWidth="1"/>
-    <col min="21" max="21" width="200.625" customWidth="1"/>
-    <col min="22" max="22" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="19.875" customWidth="1"/>
+    <col min="17" max="17" width="3.5" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="19" max="19" width="4.375" customWidth="1"/>
+    <col min="20" max="20" width="200.625" customWidth="1"/>
+    <col min="21" max="21" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -641,11 +630,10 @@
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
     </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -654,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -668,17 +656,14 @@
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
